--- a/ep/ep/export/flourish/Hungary_party_party.xlsx
+++ b/ep/ep/export/flourish/Hungary_party_party.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="37">
   <si>
     <t>name1</t>
   </si>
@@ -97,14 +97,41 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>UDMR</t>
+    <t>RMDSZ</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/egyutt.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/fidesz.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/jobbik.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/lmp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/mszp.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/rmdsz.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/dk.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/hun.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +146,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,16 +187,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,6 +570,9 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="O2">
         <v>0.713</v>
       </c>
@@ -559,6 +602,9 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O3">
         <v>0.857</v>
       </c>
@@ -588,6 +634,9 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="O4">
         <v>0.425</v>
       </c>
@@ -617,6 +666,9 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="O5">
         <v>0.716</v>
       </c>
@@ -646,6 +698,9 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="O6">
         <v>0.977</v>
       </c>
@@ -675,6 +730,9 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="S7">
         <v>0.504</v>
       </c>
@@ -692,6 +750,9 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E8">
         <v>0.825</v>
       </c>
@@ -736,6 +797,9 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J9">
         <v>0.525</v>
       </c>
@@ -765,6 +829,9 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E10">
         <v>0.715</v>
       </c>
@@ -809,6 +876,9 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I11">
         <v>0.7</v>
       </c>
@@ -829,6 +899,9 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J12">
         <v>0.602</v>
       </c>
@@ -855,6 +928,9 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O13">
         <v>0.713</v>
       </c>
@@ -884,6 +960,9 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O14">
         <v>0.577</v>
       </c>
@@ -913,6 +992,9 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="O15">
         <v>0.572</v>
       </c>
@@ -942,6 +1024,9 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="O16">
         <v>1</v>
       </c>
@@ -971,6 +1056,9 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="O17">
         <v>0.74</v>
       </c>
@@ -1000,6 +1088,9 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="S18">
         <v>0.5610000000000001</v>
       </c>
@@ -1017,6 +1108,9 @@
       <c r="C19" t="s">
         <v>19</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O19">
         <v>0.857</v>
       </c>
@@ -1046,6 +1140,9 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E20">
         <v>0.825</v>
       </c>
@@ -1090,6 +1187,9 @@
       <c r="C21" t="s">
         <v>21</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="O21">
         <v>0.577</v>
       </c>
@@ -1119,6 +1219,9 @@
       <c r="C22" t="s">
         <v>23</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J22">
         <v>0.496</v>
       </c>
@@ -1163,6 +1266,9 @@
       <c r="C23" t="s">
         <v>24</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="O23">
         <v>0.5679999999999999</v>
       </c>
@@ -1192,6 +1298,9 @@
       <c r="C24" t="s">
         <v>25</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E24">
         <v>0.593</v>
       </c>
@@ -1251,6 +1360,9 @@
       <c r="C25" t="s">
         <v>26</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I25">
         <v>0.871</v>
       </c>
@@ -1277,6 +1389,9 @@
       <c r="C26" t="s">
         <v>27</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J26">
         <v>0.99</v>
       </c>
@@ -1303,6 +1418,9 @@
       <c r="C27" t="s">
         <v>19</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O27">
         <v>0.425</v>
       </c>
@@ -1332,6 +1450,9 @@
       <c r="C28" t="s">
         <v>20</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J28">
         <v>0.525</v>
       </c>
@@ -1361,6 +1482,9 @@
       <c r="C29" t="s">
         <v>21</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="O29">
         <v>0.572</v>
       </c>
@@ -1390,6 +1514,9 @@
       <c r="C30" t="s">
         <v>22</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J30">
         <v>0.496</v>
       </c>
@@ -1434,6 +1561,9 @@
       <c r="C31" t="s">
         <v>24</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="O31">
         <v>0.59</v>
       </c>
@@ -1463,6 +1593,9 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="J32">
         <v>0.414</v>
       </c>
@@ -1507,6 +1640,9 @@
       <c r="C33" t="s">
         <v>26</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="O33">
         <v>0.594</v>
       </c>
@@ -1527,6 +1663,9 @@
       <c r="C34" t="s">
         <v>27</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J34">
         <v>0.377</v>
       </c>
@@ -1553,6 +1692,9 @@
       <c r="C35" t="s">
         <v>19</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O35">
         <v>0.716</v>
       </c>
@@ -1582,6 +1724,9 @@
       <c r="C36" t="s">
         <v>21</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="O36">
         <v>1</v>
       </c>
@@ -1611,6 +1756,9 @@
       <c r="C37" t="s">
         <v>22</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O37">
         <v>0.5679999999999999</v>
       </c>
@@ -1640,6 +1788,9 @@
       <c r="C38" t="s">
         <v>23</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="O38">
         <v>0.59</v>
       </c>
@@ -1669,6 +1820,9 @@
       <c r="C39" t="s">
         <v>25</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="O39">
         <v>0.741</v>
       </c>
@@ -1698,6 +1852,9 @@
       <c r="C40" t="s">
         <v>26</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="S40">
         <v>0.548</v>
       </c>
@@ -1715,6 +1872,9 @@
       <c r="C41" t="s">
         <v>19</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O41">
         <v>0.977</v>
       </c>
@@ -1744,6 +1904,9 @@
       <c r="C42" t="s">
         <v>20</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E42">
         <v>0.715</v>
       </c>
@@ -1788,6 +1951,9 @@
       <c r="C43" t="s">
         <v>21</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="O43">
         <v>0.74</v>
       </c>
@@ -1817,6 +1983,9 @@
       <c r="C44" t="s">
         <v>22</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E44">
         <v>0.593</v>
       </c>
@@ -1876,6 +2045,9 @@
       <c r="C45" t="s">
         <v>23</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J45">
         <v>0.414</v>
       </c>
@@ -1920,6 +2092,9 @@
       <c r="C46" t="s">
         <v>24</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="O46">
         <v>0.741</v>
       </c>
@@ -1949,6 +2124,9 @@
       <c r="C47" t="s">
         <v>26</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I47">
         <v>0.829</v>
       </c>
@@ -1975,6 +2153,9 @@
       <c r="C48" t="s">
         <v>27</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J48">
         <v>0.679</v>
       </c>
@@ -2001,6 +2182,9 @@
       <c r="C49" t="s">
         <v>19</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S49">
         <v>0.504</v>
       </c>
@@ -2018,6 +2202,9 @@
       <c r="C50" t="s">
         <v>20</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I50">
         <v>0.7</v>
       </c>
@@ -2038,6 +2225,9 @@
       <c r="C51" t="s">
         <v>21</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="S51">
         <v>0.5610000000000001</v>
       </c>
@@ -2055,6 +2245,9 @@
       <c r="C52" t="s">
         <v>22</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I52">
         <v>0.871</v>
       </c>
@@ -2081,6 +2274,9 @@
       <c r="C53" t="s">
         <v>23</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="O53">
         <v>0.594</v>
       </c>
@@ -2101,6 +2297,9 @@
       <c r="C54" t="s">
         <v>24</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S54">
         <v>0.548</v>
       </c>
@@ -2118,6 +2317,9 @@
       <c r="C55" t="s">
         <v>25</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="I55">
         <v>0.829</v>
       </c>
@@ -2144,6 +2346,9 @@
       <c r="C56" t="s">
         <v>20</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J56">
         <v>0.602</v>
       </c>
@@ -2170,6 +2375,9 @@
       <c r="C57" t="s">
         <v>22</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J57">
         <v>0.99</v>
       </c>
@@ -2196,6 +2404,9 @@
       <c r="C58" t="s">
         <v>23</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J58">
         <v>0.377</v>
       </c>
@@ -2222,6 +2433,9 @@
       <c r="C59" t="s">
         <v>25</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="J59">
         <v>0.679</v>
       </c>
@@ -2239,6 +2453,66 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>